--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-653815.3723027518</v>
+        <v>-654463.7315295568</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315932</v>
+        <v>11517486.19315933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099189</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399029</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="X11" t="n">
-        <v>63.77305697545739</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>19.4755282453679</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084956993</v>
+        <v>11.8069008495699</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993858</v>
+        <v>18.68115031993855</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143289</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855316</v>
+        <v>6.55612015985529</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779521</v>
+        <v>13.00701368779519</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434129</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955044</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522608074</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>63.77305697545746</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099203</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.1920247139903</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>19.47552824536794</v>
       </c>
       <c r="X14" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956993</v>
+        <v>11.8069008495699</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993858</v>
+        <v>18.68115031993855</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143292</v>
+        <v>37.57554633143289</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855316</v>
+        <v>6.55612015985529</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779521</v>
+        <v>13.00701368779519</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452335</v>
+        <v>72.18913543452332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434131</v>
+        <v>38.01820649434129</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955046</v>
+        <v>11.59021855955044</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608102</v>
+        <v>4.465216522608074</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C17" t="n">
-        <v>17.42869145045745</v>
+        <v>17.4286914504567</v>
       </c>
       <c r="D17" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E17" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G17" t="n">
-        <v>67.0311451400912</v>
+        <v>67.03114514009147</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009144</v>
+        <v>67.0311451400915</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293047</v>
+        <v>34.88964134293053</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045745</v>
+        <v>17.42869145045751</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132856</v>
+        <v>6.838841300132913</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171168</v>
+        <v>34.08616975171174</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116134</v>
+        <v>59.03184542116139</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009144</v>
+        <v>67.0311451400915</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39676839686291</v>
+        <v>1.396768396862967</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791893</v>
+        <v>21.88690035791899</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550349</v>
+        <v>38.39373833550354</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789107</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W27" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V28" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W28" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>160.7054292266758</v>
       </c>
       <c r="F29" t="n">
-        <v>185.6511048961251</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G29" t="n">
         <v>193.6504046150556</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695969</v>
       </c>
       <c r="U31" t="n">
         <v>65.0836314184241</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695997</v>
       </c>
       <c r="U34" t="n">
         <v>65.08363141842413</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.1970167602784</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0621061470417</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F11" t="n">
-        <v>78.92719553380503</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I11" t="n">
-        <v>25.71165856611162</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J11" t="n">
-        <v>94.36607826710377</v>
+        <v>74.4467046215605</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2775815250288</v>
+        <v>122.3582078794855</v>
       </c>
       <c r="L11" t="n">
-        <v>142.2775815250288</v>
+        <v>159.095073398851</v>
       </c>
       <c r="M11" t="n">
-        <v>200.5088951289222</v>
+        <v>159.095073398851</v>
       </c>
       <c r="N11" t="n">
-        <v>200.5088951289222</v>
+        <v>219.4524093352009</v>
       </c>
       <c r="O11" t="n">
-        <v>255.9805537739759</v>
+        <v>274.9240679802545</v>
       </c>
       <c r="P11" t="n">
-        <v>255.9805537739759</v>
+        <v>274.9240679802545</v>
       </c>
       <c r="Q11" t="n">
-        <v>274.9240679802547</v>
+        <v>274.9240679802545</v>
       </c>
       <c r="R11" t="n">
-        <v>274.9240679802547</v>
+        <v>274.9240679802545</v>
       </c>
       <c r="S11" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="T11" t="n">
-        <v>289.6142460284173</v>
+        <v>282.4369692444785</v>
       </c>
       <c r="U11" t="n">
-        <v>289.6142460284173</v>
+        <v>244.8692675131752</v>
       </c>
       <c r="V11" t="n">
-        <v>289.6142460284173</v>
+        <v>171.7343568999385</v>
       </c>
       <c r="W11" t="n">
-        <v>289.6142460284173</v>
+        <v>98.59944628670189</v>
       </c>
       <c r="X11" t="n">
-        <v>225.1970167602784</v>
+        <v>25.46453567346521</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.1970167602784</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="K12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="M12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="N12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="O12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="P12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="R12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="S12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="T12" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="U12" t="n">
-        <v>62.61723103306481</v>
+        <v>62.61723103306475</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504604</v>
+        <v>43.74738222504601</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C13" t="n">
-        <v>52.19617449411861</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D13" t="n">
-        <v>52.19617449411861</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E13" t="n">
-        <v>52.19617449411861</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F13" t="n">
-        <v>52.19617449411861</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G13" t="n">
-        <v>52.19617449411861</v>
+        <v>51.64925404541337</v>
       </c>
       <c r="H13" t="n">
-        <v>52.19617449411861</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="I13" t="n">
-        <v>52.19617449411861</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="J13" t="n">
-        <v>52.19617449411861</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="K13" t="n">
-        <v>52.19617449411861</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="L13" t="n">
-        <v>52.19617449411861</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="M13" t="n">
-        <v>121.1356342181329</v>
+        <v>154.5465694990178</v>
       </c>
       <c r="N13" t="n">
-        <v>192.8151601101662</v>
+        <v>154.5465694990178</v>
       </c>
       <c r="O13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952377</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307981</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100674</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790459</v>
+        <v>95.14480672790451</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466791</v>
+        <v>22.00989611466785</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037451</v>
+        <v>10.30260464037448</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.3444248019439</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C14" t="n">
-        <v>143.3444248019439</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3444248019439</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E14" t="n">
-        <v>143.3444248019439</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F14" t="n">
-        <v>143.3444248019439</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G14" t="n">
-        <v>70.2095141887072</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I14" t="n">
-        <v>5.792284920568346</v>
+        <v>25.71165856611163</v>
       </c>
       <c r="J14" t="n">
-        <v>5.792284920568346</v>
+        <v>25.71165856611163</v>
       </c>
       <c r="K14" t="n">
-        <v>53.70378817849331</v>
+        <v>25.71165856611163</v>
       </c>
       <c r="L14" t="n">
-        <v>53.70378817849331</v>
+        <v>25.71165856611163</v>
       </c>
       <c r="M14" t="n">
-        <v>61.39710505599238</v>
+        <v>83.94297217000505</v>
       </c>
       <c r="N14" t="n">
-        <v>121.7544409923423</v>
+        <v>83.94297217000505</v>
       </c>
       <c r="O14" t="n">
-        <v>193.4339668843756</v>
+        <v>139.4146308150587</v>
       </c>
       <c r="P14" t="n">
-        <v>237.3364601073263</v>
+        <v>146.2551942443507</v>
       </c>
       <c r="Q14" t="n">
-        <v>274.9240679802547</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802547</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="S14" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="T14" t="n">
-        <v>289.6142460284173</v>
+        <v>282.4369692444785</v>
       </c>
       <c r="U14" t="n">
-        <v>289.6142460284173</v>
+        <v>244.8692675131752</v>
       </c>
       <c r="V14" t="n">
-        <v>289.6142460284173</v>
+        <v>171.7343568999385</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6142460284173</v>
+        <v>152.0621061470417</v>
       </c>
       <c r="X14" t="n">
-        <v>216.4793354151806</v>
+        <v>78.927195533805</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.4793354151806</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="K15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="L15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="M15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="N15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="O15" t="n">
-        <v>5.792284920568346</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="P15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="R15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="S15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="T15" t="n">
-        <v>74.54339350737787</v>
+        <v>74.54339350737779</v>
       </c>
       <c r="U15" t="n">
-        <v>62.61723103306481</v>
+        <v>62.61723103306475</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504604</v>
+        <v>43.74738222504601</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C16" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D16" t="n">
-        <v>70.64120909372994</v>
+        <v>70.64120909372997</v>
       </c>
       <c r="E16" t="n">
-        <v>70.64120909372994</v>
+        <v>70.64120909372997</v>
       </c>
       <c r="F16" t="n">
-        <v>70.64120909372994</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="G16" t="n">
-        <v>116.4981782185749</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="H16" t="n">
-        <v>116.4981782185749</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="I16" t="n">
-        <v>116.4981782185749</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="J16" t="n">
-        <v>188.1777041106082</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="K16" t="n">
-        <v>188.1777041106082</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="L16" t="n">
-        <v>188.1777041106082</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="M16" t="n">
-        <v>226.2260953910512</v>
+        <v>82.86704360698459</v>
       </c>
       <c r="N16" t="n">
-        <v>226.2260953910512</v>
+        <v>154.5465694990178</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910512</v>
+        <v>226.2260953910511</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952378</v>
+        <v>219.6037517952377</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307982</v>
+        <v>206.4653541307981</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100675</v>
+        <v>133.5470355100674</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790459</v>
+        <v>95.14480672790451</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466791</v>
+        <v>22.00989611466785</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037451</v>
+        <v>10.30260464037448</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635528</v>
+        <v>192.0717728635526</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247068</v>
+        <v>174.4670340247072</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195221</v>
+        <v>167.5591135195224</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228436</v>
+        <v>133.1286390228439</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480188</v>
+        <v>73.50051233480215</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H17" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I17" t="n">
-        <v>5.792284920568346</v>
+        <v>77.47181081260159</v>
       </c>
       <c r="J17" t="n">
-        <v>5.792284920568346</v>
+        <v>146.2551942443507</v>
       </c>
       <c r="K17" t="n">
-        <v>5.792284920568346</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="L17" t="n">
-        <v>5.792284920568346</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="M17" t="n">
-        <v>74.57566835231745</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="N17" t="n">
-        <v>146.2551942443507</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="O17" t="n">
-        <v>146.2551942443507</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="P17" t="n">
-        <v>217.934720136384</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.934720136384</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="R17" t="n">
-        <v>217.934720136384</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="S17" t="n">
-        <v>217.934720136384</v>
+        <v>217.9347201363839</v>
       </c>
       <c r="T17" t="n">
-        <v>217.934720136384</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="U17" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="V17" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="W17" t="n">
         <v>288.2033688598689</v>
@@ -5558,7 +5558,7 @@
         <v>266.0953887003548</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261088</v>
+        <v>227.3138348261087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635527</v>
+        <v>192.0717728635528</v>
       </c>
       <c r="C20" t="n">
         <v>174.4670340247068</v>
@@ -5735,58 +5735,58 @@
         <v>167.5591135195222</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228439</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480212</v>
+        <v>73.50051233480218</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H20" t="n">
-        <v>5.792284920568346</v>
+        <v>18.41124773260448</v>
       </c>
       <c r="I20" t="n">
-        <v>5.792284920568346</v>
+        <v>18.41124773260448</v>
       </c>
       <c r="J20" t="n">
-        <v>5.792284920568346</v>
+        <v>90.09077362463772</v>
       </c>
       <c r="K20" t="n">
-        <v>5.792284920568346</v>
+        <v>90.09077362463772</v>
       </c>
       <c r="L20" t="n">
-        <v>5.792284920568346</v>
+        <v>90.09077362463772</v>
       </c>
       <c r="M20" t="n">
-        <v>74.57566835231745</v>
+        <v>90.09077362463772</v>
       </c>
       <c r="N20" t="n">
-        <v>74.57566835231745</v>
+        <v>161.7702995166709</v>
       </c>
       <c r="O20" t="n">
-        <v>146.2551942443507</v>
+        <v>161.7702995166709</v>
       </c>
       <c r="P20" t="n">
-        <v>146.2551942443507</v>
+        <v>233.4498254087042</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.2551942443507</v>
+        <v>233.4498254087042</v>
       </c>
       <c r="R20" t="n">
-        <v>146.2551942443507</v>
+        <v>233.4498254087042</v>
       </c>
       <c r="S20" t="n">
-        <v>146.2551942443507</v>
+        <v>233.4498254087042</v>
       </c>
       <c r="T20" t="n">
-        <v>217.934720136384</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="U20" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="V20" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284171</v>
       </c>
       <c r="W20" t="n">
         <v>288.2033688598689</v>
@@ -5795,7 +5795,7 @@
         <v>266.0953887003549</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635529</v>
+        <v>192.0717728635527</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247067</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195222</v>
+        <v>167.559113519522</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228438</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480212</v>
+        <v>73.50051233480218</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41124773260454</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="I23" t="n">
-        <v>18.41124773260454</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="J23" t="n">
-        <v>18.41124773260454</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="K23" t="n">
-        <v>18.41124773260454</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="L23" t="n">
-        <v>90.09077362463781</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="M23" t="n">
-        <v>90.09077362463781</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="N23" t="n">
-        <v>161.7702995166711</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="O23" t="n">
-        <v>161.7702995166711</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="P23" t="n">
-        <v>161.7702995166711</v>
+        <v>77.47181081260173</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.4498254087043</v>
+        <v>149.1513367046351</v>
       </c>
       <c r="R23" t="n">
-        <v>233.4498254087043</v>
+        <v>220.8308625966685</v>
       </c>
       <c r="S23" t="n">
-        <v>233.4498254087043</v>
+        <v>289.6142460284177</v>
       </c>
       <c r="T23" t="n">
-        <v>269.7232235965062</v>
+        <v>289.6142460284177</v>
       </c>
       <c r="U23" t="n">
-        <v>269.7232235965062</v>
+        <v>289.6142460284177</v>
       </c>
       <c r="V23" t="n">
-        <v>289.6142460284173</v>
+        <v>289.6142460284177</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598689</v>
+        <v>288.203368859869</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003548</v>
+        <v>266.095388700355</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261088</v>
+        <v>227.3138348261087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568346</v>
+        <v>5.792284920568354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339781</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021411</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6033086115594</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296144</v>
+        <v>345.0769400296139</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,31 +6221,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063607</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0900989975665</v>
+        <v>61.40123032063603</v>
       </c>
       <c r="K26" t="n">
-        <v>512.9400096768828</v>
+        <v>437.2511409999523</v>
       </c>
       <c r="L26" t="n">
-        <v>939.2266799539204</v>
+        <v>863.5378112769899</v>
       </c>
       <c r="M26" t="n">
-        <v>968.608247855528</v>
+        <v>863.5378112769899</v>
       </c>
       <c r="N26" t="n">
-        <v>1394.894918132566</v>
+        <v>863.5378112769899</v>
       </c>
       <c r="O26" t="n">
-        <v>1394.894918132566</v>
+        <v>1289.824481554027</v>
       </c>
       <c r="P26" t="n">
-        <v>1445.831860331455</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q26" t="n">
-        <v>1700.645757933627</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.74484378484193</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
       </c>
       <c r="X27" t="n">
-        <v>49.74484378484193</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.74484378484193</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="28">
@@ -6358,70 +6358,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>75.4264387561667</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M28" t="n">
-        <v>99.09461837230739</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N28" t="n">
-        <v>99.09461837230739</v>
+        <v>155.2921183402176</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343247</v>
+        <v>155.2921183402176</v>
       </c>
       <c r="P28" t="n">
-        <v>207.8621709343247</v>
+        <v>155.2921183402176</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8621709343247</v>
+        <v>155.2921183402176</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.3182809166434</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6461,22 +6461,22 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J29" t="n">
-        <v>34.44740769915455</v>
+        <v>110.1362763760849</v>
       </c>
       <c r="K29" t="n">
-        <v>89.39335993301778</v>
+        <v>110.1362763760849</v>
       </c>
       <c r="L29" t="n">
-        <v>336.2404264407696</v>
+        <v>356.9833428838367</v>
       </c>
       <c r="M29" t="n">
-        <v>512.0250870118286</v>
+        <v>517.7621876444398</v>
       </c>
       <c r="N29" t="n">
-        <v>938.3117572888663</v>
+        <v>944.0488579214774</v>
       </c>
       <c r="O29" t="n">
-        <v>1000.817864909858</v>
+        <v>1370.335528198515</v>
       </c>
       <c r="P29" t="n">
         <v>1370.335528198515</v>
@@ -6540,34 +6540,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P30" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094512</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094512</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094512</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414819</v>
+        <v>59.90457275094512</v>
       </c>
       <c r="T30" t="n">
         <v>81.66668593414819</v>
@@ -6604,43 +6604,43 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E31" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F31" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G31" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H31" t="n">
-        <v>108.4904761161811</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J31" t="n">
-        <v>155.8360083578989</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>155.8360083578989</v>
+        <v>102.2452123755972</v>
       </c>
       <c r="L31" t="n">
-        <v>155.8360083578989</v>
+        <v>102.2452123755972</v>
       </c>
       <c r="M31" t="n">
-        <v>155.8360083578989</v>
+        <v>102.2452123755972</v>
       </c>
       <c r="N31" t="n">
-        <v>155.8360083578989</v>
+        <v>102.2452123755972</v>
       </c>
       <c r="O31" t="n">
-        <v>155.8360083578989</v>
+        <v>102.2452123755972</v>
       </c>
       <c r="P31" t="n">
-        <v>155.8360083578989</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="Q31" t="n">
-        <v>155.8360083578989</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="R31" t="n">
         <v>207.8621709343247</v>
@@ -6698,28 +6698,28 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J32" t="n">
-        <v>34.44740769915455</v>
+        <v>110.1362763760849</v>
       </c>
       <c r="K32" t="n">
-        <v>410.2973183784709</v>
+        <v>110.1362763760849</v>
       </c>
       <c r="L32" t="n">
-        <v>736.2249215205914</v>
+        <v>536.4229466531225</v>
       </c>
       <c r="M32" t="n">
-        <v>801.4906841004231</v>
+        <v>601.6887092329541</v>
       </c>
       <c r="N32" t="n">
-        <v>1227.777354377461</v>
+        <v>1027.975379509992</v>
       </c>
       <c r="O32" t="n">
-        <v>1639.271739276051</v>
+        <v>1027.975379509992</v>
       </c>
       <c r="P32" t="n">
-        <v>1690.20868147494</v>
+        <v>1370.335528198515</v>
       </c>
       <c r="Q32" t="n">
-        <v>1690.20868147494</v>
+        <v>1625.149425800687</v>
       </c>
       <c r="R32" t="n">
         <v>1722.370384957728</v>
@@ -6765,34 +6765,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="F33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O33" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P33" t="n">
         <v>81.66668593414828</v>
@@ -6838,40 +6838,40 @@
         <v>34.44740769915455</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3307808482544</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3307808482544</v>
+        <v>102.2452123755974</v>
       </c>
       <c r="O34" t="n">
-        <v>207.8621709343248</v>
+        <v>102.2452123755974</v>
       </c>
       <c r="P34" t="n">
         <v>207.8621709343248</v>
@@ -6932,37 +6932,37 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355126</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J35" t="n">
-        <v>78.79010407355126</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="K35" t="n">
-        <v>156.917214980898</v>
+        <v>156.9172149808979</v>
       </c>
       <c r="L35" t="n">
-        <v>232.4735291943175</v>
+        <v>511.5243593659023</v>
       </c>
       <c r="M35" t="n">
-        <v>587.0806735793219</v>
+        <v>599.9712806192175</v>
       </c>
       <c r="N35" t="n">
-        <v>677.6536171650936</v>
+        <v>954.5784250042218</v>
       </c>
       <c r="O35" t="n">
-        <v>1032.260761550098</v>
+        <v>1245.929036837003</v>
       </c>
       <c r="P35" t="n">
-        <v>1106.37886242247</v>
+        <v>1320.047137709376</v>
       </c>
       <c r="Q35" t="n">
-        <v>1364.669194558242</v>
+        <v>1387.850353231726</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558242</v>
+        <v>1387.850353231726</v>
       </c>
       <c r="S35" t="n">
-        <v>1409.574980255827</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="T35" t="n">
         <v>1432.756138929311</v>
@@ -6999,55 +6999,55 @@
         <v>28.65512277858621</v>
       </c>
       <c r="E36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="U36" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="V36" t="n">
         <v>35.78111320680457</v>
@@ -7075,37 +7075,37 @@
         <v>28.65512277858621</v>
       </c>
       <c r="D37" t="n">
-        <v>37.34684982405598</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E37" t="n">
-        <v>37.34684982405598</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F37" t="n">
-        <v>37.34684982405598</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G37" t="n">
-        <v>37.34684982405598</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="I37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659385</v>
+        <v>111.9315331204687</v>
       </c>
       <c r="O37" t="n">
         <v>120.6232601659385</v>
@@ -7169,34 +7169,34 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I38" t="n">
-        <v>28.65512277858621</v>
+        <v>78.79010407355133</v>
       </c>
       <c r="J38" t="n">
-        <v>28.65512277858621</v>
+        <v>345.0657804443184</v>
       </c>
       <c r="K38" t="n">
-        <v>383.2622671635905</v>
+        <v>423.1928913516651</v>
       </c>
       <c r="L38" t="n">
-        <v>737.8694115485948</v>
+        <v>502.58994419352</v>
       </c>
       <c r="M38" t="n">
-        <v>826.3163328019101</v>
+        <v>591.0368654468352</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8892763876819</v>
+        <v>945.6440098318395</v>
       </c>
       <c r="O38" t="n">
-        <v>1002.576542682157</v>
+        <v>1031.331276126315</v>
       </c>
       <c r="P38" t="n">
-        <v>1286.428902577205</v>
+        <v>1031.331276126315</v>
       </c>
       <c r="Q38" t="n">
-        <v>1354.232118099555</v>
+        <v>1309.326332401971</v>
       </c>
       <c r="R38" t="n">
-        <v>1409.574980255827</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S38" t="n">
         <v>1409.574980255827</v>
@@ -7230,61 +7230,61 @@
         <v>28.65512277858621</v>
       </c>
       <c r="C39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680448</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="V39" t="n">
         <v>35.78111320680448</v>
@@ -7330,13 +7330,13 @@
         <v>28.65512277858621</v>
       </c>
       <c r="J40" t="n">
-        <v>120.6232601659382</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K40" t="n">
-        <v>120.6232601659382</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L40" t="n">
-        <v>120.6232601659382</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M40" t="n">
         <v>120.6232601659382</v>
@@ -7406,37 +7406,37 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355126</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J41" t="n">
-        <v>78.79010407355126</v>
+        <v>345.0657804443182</v>
       </c>
       <c r="K41" t="n">
-        <v>156.917214980898</v>
+        <v>423.1928913516649</v>
       </c>
       <c r="L41" t="n">
-        <v>232.4735291943175</v>
+        <v>498.7492055650844</v>
       </c>
       <c r="M41" t="n">
-        <v>320.9204504476327</v>
+        <v>498.7492055650844</v>
       </c>
       <c r="N41" t="n">
-        <v>602.6531290886298</v>
+        <v>589.322149150856</v>
       </c>
       <c r="O41" t="n">
-        <v>957.2602734736342</v>
+        <v>943.9292935358603</v>
       </c>
       <c r="P41" t="n">
-        <v>1264.704275553104</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="Q41" t="n">
-        <v>1332.507491075455</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R41" t="n">
-        <v>1387.850353231726</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S41" t="n">
-        <v>1432.756138929311</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T41" t="n">
         <v>1432.756138929311</v>
@@ -7476,52 +7476,52 @@
         <v>28.65512277858621</v>
       </c>
       <c r="F42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="V42" t="n">
         <v>35.78111320680457</v>
@@ -7585,16 +7585,16 @@
         <v>28.65512277858621</v>
       </c>
       <c r="P43" t="n">
-        <v>103.284596067434</v>
+        <v>45.41593891602919</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.284596067434</v>
+        <v>45.41593891602919</v>
       </c>
       <c r="R43" t="n">
-        <v>103.284596067434</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="S43" t="n">
-        <v>103.284596067434</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T43" t="n">
         <v>120.6232601659385</v>
@@ -7643,34 +7643,34 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355126</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J44" t="n">
-        <v>177.6601314239652</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K44" t="n">
-        <v>217.348357968099</v>
+        <v>213.4566140458435</v>
       </c>
       <c r="L44" t="n">
-        <v>292.9046721815185</v>
+        <v>289.012928259263</v>
       </c>
       <c r="M44" t="n">
-        <v>647.5118165665228</v>
+        <v>377.4598495125782</v>
       </c>
       <c r="N44" t="n">
-        <v>647.5118165665228</v>
+        <v>732.0669938975825</v>
       </c>
       <c r="O44" t="n">
-        <v>1002.118960951527</v>
+        <v>1086.674138282587</v>
       </c>
       <c r="P44" t="n">
-        <v>1076.2370618239</v>
+        <v>1086.674138282587</v>
       </c>
       <c r="Q44" t="n">
-        <v>1354.232118099555</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="R44" t="n">
-        <v>1409.574980255827</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S44" t="n">
         <v>1409.574980255827</v>
@@ -7737,7 +7737,7 @@
         <v>28.65512277858621</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680457</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O45" t="n">
         <v>35.78111320680457</v>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N11" t="n">
-        <v>2.254861187995715</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>86.29196513688626</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>153.6385915634987</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018487</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>170.7517330173244</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>145.107145612119</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>69.54270475904903</v>
       </c>
       <c r="L14" t="n">
-        <v>78.54519622124947</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O14" t="n">
-        <v>230.4910199072439</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>34.43628082737862</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>47.02249634867032</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9094,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>103.0438267454249</v>
+        <v>125.8418079693524</v>
       </c>
       <c r="N26" t="n">
-        <v>362.5200862270196</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O26" t="n">
-        <v>158.0874584001395</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>7.928765072220138</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.459895454735424</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>111.6352504961892</v>
+        <v>96.47786078865802</v>
       </c>
       <c r="N29" t="n">
-        <v>362.5200862270196</v>
+        <v>375.455625233035</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734511</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669644</v>
+        <v>116.0218374998183</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O31" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>144.7715381416158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>398.9192147524099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>362.5200862270196</v>
+        <v>362.5200862270198</v>
       </c>
       <c r="O32" t="n">
-        <v>352.5134113915136</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>166.830802496526</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>81.41936256978451</v>
+        <v>22.41050397405494</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>281.8695254258433</v>
       </c>
       <c r="M35" t="n">
-        <v>268.8487102340294</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>266.7012129285179</v>
       </c>
       <c r="O35" t="n">
-        <v>271.6362404954837</v>
+        <v>207.7407530689962</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>192.4112289024464</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>120.1382484046289</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.65453474483783</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>279.2727610885429</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>281.8695254258432</v>
+        <v>177.6168193145266</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>266.7012129285178</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>211.8527868915911</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439821</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N41" t="n">
-        <v>193.0906414699246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>271.6362404954838</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>160.0166331284198</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>69.66151523110773</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>268.8487102340294</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>266.7012129285179</v>
       </c>
       <c r="O44" t="n">
-        <v>271.6362404954837</v>
+        <v>293.1528343012935</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>89.91755635530316</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>168.6144048339939</v>
       </c>
       <c r="C11" t="n">
-        <v>78.74989343441655</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911963</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E11" t="n">
         <v>167.8109332427751</v>
       </c>
       <c r="F11" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122247</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311548</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081986</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.10550401609923</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399032</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406482</v>
+        <v>41.2292601335439</v>
       </c>
       <c r="W11" t="n">
-        <v>135.1215318879263</v>
+        <v>62.71797038082201</v>
       </c>
       <c r="X11" t="n">
-        <v>91.83860687352494</v>
+        <v>83.20810234187803</v>
       </c>
       <c r="Y11" t="n">
-        <v>172.1185018265669</v>
+        <v>152.642973581199</v>
       </c>
     </row>
     <row r="12">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.21084332688957</v>
+        <v>168.6144048339939</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415209</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911963</v>
+        <v>140.5636047911962</v>
       </c>
       <c r="E14" t="n">
         <v>167.8109332427751</v>
@@ -23507,10 +23507,10 @@
         <v>192.7566089122247</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311548</v>
       </c>
       <c r="H14" t="n">
-        <v>57.20527943274111</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.10550401609923</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399032</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>41.2292601335439</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1215318879263</v>
+        <v>115.6460036425584</v>
       </c>
       <c r="X14" t="n">
         <v>83.20810234187803</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265669</v>
+        <v>99.71494031946258</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867700.4197456104</v>
+        <v>867700.4197456102</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.9862943712</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.9862943712</v>
+        <v>450601.9862943713</v>
       </c>
       <c r="D2" t="n">
         <v>450601.9862943711</v>
@@ -26323,16 +26323,16 @@
         <v>386672.1198074251</v>
       </c>
       <c r="F2" t="n">
-        <v>386672.1198074251</v>
+        <v>386672.1198074252</v>
       </c>
       <c r="G2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="H2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253557</v>
@@ -26341,19 +26341,19 @@
         <v>451572.9734253557</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="M2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="N2" t="n">
         <v>451572.9734253556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253557</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253557</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253557</v>
       </c>
     </row>
     <row r="3">
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928506</v>
       </c>
       <c r="M3" t="n">
         <v>18732.24943311802</v>
@@ -26402,7 +26402,7 @@
         <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361795</v>
+        <v>70000.14188361802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>440899.9009590467</v>
       </c>
       <c r="K4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="L4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="M4" t="n">
         <v>436970.6596854209</v>
@@ -26482,13 +26482,13 @@
         <v>24720.58373795486</v>
       </c>
       <c r="G5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988506</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988506</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988507</v>
+        <v>35962.69087988508</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50641.57363736015</v>
+        <v>-50645.98721522815</v>
       </c>
       <c r="C6" t="n">
-        <v>-50641.57363736003</v>
+        <v>-50645.98721522809</v>
       </c>
       <c r="D6" t="n">
-        <v>-50641.57363736009</v>
+        <v>-50645.98721522826</v>
       </c>
       <c r="E6" t="n">
-        <v>-283059.3389338768</v>
+        <v>-283354.3428139584</v>
       </c>
       <c r="F6" t="n">
-        <v>-4732.874266997751</v>
+        <v>-5027.878147079141</v>
       </c>
       <c r="G6" t="n">
-        <v>-123211.6954376613</v>
+        <v>-123211.6954376614</v>
       </c>
       <c r="H6" t="n">
-        <v>-16231.88464481048</v>
+        <v>-16231.88464481053</v>
       </c>
       <c r="I6" t="n">
-        <v>-16231.88464481048</v>
+        <v>-16231.88464481066</v>
       </c>
       <c r="J6" t="n">
         <v>-200140.9108876239</v>
       </c>
       <c r="K6" t="n">
-        <v>-36422.75720050082</v>
+        <v>-36422.75720050088</v>
       </c>
       <c r="L6" t="n">
-        <v>-143402.5679933514</v>
+        <v>-143402.5679933515</v>
       </c>
       <c r="M6" t="n">
-        <v>-48792.13066735222</v>
+        <v>-48792.1306673521</v>
       </c>
       <c r="N6" t="n">
-        <v>-30059.88123423418</v>
+        <v>-30059.88123423436</v>
       </c>
       <c r="O6" t="n">
-        <v>-100060.023117852</v>
+        <v>-100060.0231178521</v>
       </c>
       <c r="P6" t="n">
-        <v>-30059.88123423418</v>
+        <v>-30059.88123423407</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="G2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="I2" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="G3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="H3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="I3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="J3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="K3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="L3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="M3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="N3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="O3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="P3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910633</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910633</v>
       </c>
       <c r="M2" t="n">
         <v>23.41531179139753</v>
@@ -26944,7 +26944,7 @@
         <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452244</v>
+        <v>87.50017735452252</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.3137735552663</v>
+        <v>106.3137735552662</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323276</v>
+        <v>358.1890347323275</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910633</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452252</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>214.1194368294867</v>
       </c>
       <c r="I11" t="n">
-        <v>214.1194368294867</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J11" t="n">
         <v>214.1194368294867</v>
@@ -28117,25 +28117,25 @@
         <v>214.1194368294867</v>
       </c>
       <c r="L11" t="n">
-        <v>168.3207433304991</v>
+        <v>205.4286882995552</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="N11" t="n">
-        <v>150.8975696451779</v>
       </c>
       <c r="O11" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7734840790314</v>
+        <v>83.48151894214521</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.2870189843861</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>188.7383716710528</v>
+        <v>123.0219517980703</v>
       </c>
       <c r="S11" t="n">
         <v>214.1194368294867</v>
@@ -28187,34 +28187,34 @@
         <v>110.026926034905</v>
       </c>
       <c r="I12" t="n">
-        <v>81.52339584755809</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J12" t="n">
-        <v>105.2328625520064</v>
+        <v>174.6784267811069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R12" t="n">
-        <v>85.95993058237568</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S12" t="n">
         <v>167.4356349622666</v>
@@ -28248,7 +28248,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>214.1194368294867</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28260,37 +28260,37 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7992659963099</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5226664330617</v>
+        <v>192.0557872023255</v>
       </c>
       <c r="I13" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>79.80504541274973</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>181.2774045135052</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>183.7622876435819</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R13" t="n">
         <v>168.6732614754589</v>
@@ -28345,37 +28345,37 @@
         <v>214.1194368294867</v>
       </c>
       <c r="I14" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>96.18127423414985</v>
+      </c>
+      <c r="L14" t="n">
+        <v>168.3207433304991</v>
+      </c>
+      <c r="M14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="L14" t="n">
-        <v>89.77554710924962</v>
-      </c>
-      <c r="M14" t="n">
-        <v>163.0709552876742</v>
-      </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>214.1194368294867</v>
+        <v>176.6831441086193</v>
       </c>
       <c r="Q14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="R14" t="n">
-        <v>188.7383716710528</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T14" t="n">
         <v>214.1194368294867</v>
@@ -28424,7 +28424,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I15" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J15" t="n">
         <v>105.2328625520064</v>
@@ -28433,19 +28433,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734511</v>
+        <v>157.6342306164456</v>
       </c>
       <c r="P15" t="n">
-        <v>159.753093595797</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7916225242058</v>
@@ -28494,10 +28494,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>157.7703758140975</v>
       </c>
       <c r="G16" t="n">
-        <v>214.1194368294867</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
         <v>160.5226664330617</v>
@@ -28506,7 +28506,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J16" t="n">
-        <v>185.8448482425774</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K16" t="n">
         <v>106.7396511863337</v>
@@ -28515,19 +28515,19 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M16" t="n">
-        <v>147.3065614714948</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>170.7517330173244</v>
       </c>
       <c r="O16" t="n">
-        <v>111.3587261364775</v>
+        <v>183.7622876435819</v>
       </c>
       <c r="P16" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.4516218226006</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R16" t="n">
         <v>168.6732614754589</v>
@@ -28561,52 +28561,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H17" t="n">
         <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>193.998857389544</v>
+        <v>266.4024188966483</v>
       </c>
       <c r="J17" t="n">
-        <v>144.7715381416158</v>
+        <v>214.2497032241907</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7239789931988</v>
+        <v>238.1275405003032</v>
       </c>
       <c r="L17" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M17" t="n">
-        <v>224.7780932212601</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N17" t="n">
-        <v>225.555992340278</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O17" t="n">
-        <v>158.0874584001395</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P17" t="n">
-        <v>242.1770455861357</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R17" t="n">
         <v>188.7383716710528</v>
@@ -28615,22 +28615,22 @@
         <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2249408455859</v>
+        <v>293.6285023526902</v>
       </c>
       <c r="U17" t="n">
-        <v>323.7150230505814</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I18" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J18" t="n">
         <v>105.2328625520064</v>
@@ -28670,19 +28670,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242058</v>
@@ -28755,16 +28755,16 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O19" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P19" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.4516218226006</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R19" t="n">
         <v>168.6732614754589</v>
@@ -28798,52 +28798,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H20" t="n">
-        <v>335.0977732376853</v>
+        <v>347.84420032055</v>
       </c>
       <c r="I20" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J20" t="n">
-        <v>144.7715381416158</v>
+        <v>217.1750996487201</v>
       </c>
       <c r="K20" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
         <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>224.7780932212601</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
-        <v>153.1524308331736</v>
+        <v>225.555992340278</v>
       </c>
       <c r="O20" t="n">
-        <v>230.4910199072439</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P20" t="n">
-        <v>169.7734840790314</v>
+        <v>242.1770455861358</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.152156149761</v>
+        <v>176.1521561497611</v>
       </c>
       <c r="R20" t="n">
         <v>188.7383716710528</v>
@@ -28852,22 +28852,22 @@
         <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526902</v>
+        <v>277.956678845296</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7150230505814</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I21" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J21" t="n">
         <v>105.2328625520064</v>
@@ -28907,19 +28907,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242058</v>
@@ -28992,16 +28992,16 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O22" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P22" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.4516218226006</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R22" t="n">
         <v>168.6732614754589</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="C23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="F23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="G23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8442003205501</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I23" t="n">
         <v>193.998857389544</v>
@@ -29062,49 +29062,49 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
-        <v>165.7239789931988</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L23" t="n">
-        <v>240.7243048376034</v>
+        <v>240.7243048376035</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N23" t="n">
-        <v>225.555992340278</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O23" t="n">
-        <v>158.0874584001395</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
-        <v>169.7734840790314</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q23" t="n">
-        <v>248.5557176568653</v>
+        <v>248.5557176568655</v>
       </c>
       <c r="R23" t="n">
-        <v>188.7383716710528</v>
+        <v>261.1419331781572</v>
       </c>
       <c r="S23" t="n">
-        <v>199.280873144474</v>
+        <v>268.7590382270489</v>
       </c>
       <c r="T23" t="n">
-        <v>257.8647369948807</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
         <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
-        <v>347.8442003205501</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="X23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.8442003205501</v>
+        <v>347.84420032055</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I24" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J24" t="n">
         <v>105.2328625520064</v>
@@ -29144,19 +29144,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242058</v>
@@ -29229,16 +29229,16 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O25" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P25" t="n">
-        <v>114.5411443216187</v>
+        <v>114.5411443216188</v>
       </c>
       <c r="Q25" t="n">
-        <v>135.4516218226006</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R25" t="n">
         <v>168.6732614754589</v>
@@ -29296,7 +29296,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="J26" t="n">
-        <v>221.2249408455859</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K26" t="n">
         <v>221.2249408455859</v>
@@ -29305,13 +29305,13 @@
         <v>181.2521250194806</v>
       </c>
       <c r="M26" t="n">
-        <v>81.9344528090256</v>
+        <v>29.45812016933283</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>221.2249408455859</v>
@@ -29320,7 +29320,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="R26" t="n">
-        <v>123.0219517980703</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
         <v>221.2249408455859</v>
@@ -29354,7 +29354,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>204.952783987615</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29372,31 +29372,31 @@
         <v>110.026926034905</v>
       </c>
       <c r="I27" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J27" t="n">
-        <v>105.2328625520064</v>
+        <v>152.9291031934142</v>
       </c>
       <c r="K27" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>131.4816003936965</v>
@@ -29417,7 +29417,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="X27" t="n">
-        <v>221.2249408455859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.2249408455859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -29448,13 +29448,13 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H28" t="n">
-        <v>184.4299185705775</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I28" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K28" t="n">
         <v>106.7396511863337</v>
@@ -29463,25 +29463,25 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022011</v>
+        <v>220.4135357941223</v>
       </c>
       <c r="O28" t="n">
+        <v>111.3587261364776</v>
+      </c>
+      <c r="P28" t="n">
+        <v>114.5411443216188</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>135.4516218226007</v>
+      </c>
+      <c r="R28" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="P28" t="n">
-        <v>114.5411443216187</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>70.10866344484918</v>
-      </c>
-      <c r="R28" t="n">
-        <v>168.6732614754589</v>
-      </c>
       <c r="S28" t="n">
-        <v>220.675556989342</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T28" t="n">
         <v>221.2249408455859</v>
@@ -29533,10 +29533,10 @@
         <v>193.998857389544</v>
       </c>
       <c r="J29" t="n">
-        <v>135.3116426868804</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
-        <v>221.2249408455859</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29545,13 +29545,13 @@
         <v>221.2249408455859</v>
       </c>
       <c r="N29" t="n">
-        <v>221.2249408455859</v>
+        <v>208.2894018395707</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P29" t="n">
-        <v>221.2249408455859</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q29" t="n">
         <v>221.2249408455859</v>
@@ -29609,40 +29609,40 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J30" t="n">
-        <v>152.9291031934141</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
       </c>
       <c r="T30" t="n">
-        <v>199.2430083373</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U30" t="n">
         <v>221.2249408455859</v>
@@ -29676,7 +29676,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>221.2249408455859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -29688,16 +29688,16 @@
         <v>160.5226664330617</v>
       </c>
       <c r="I31" t="n">
-        <v>197.5089012139477</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J31" t="n">
         <v>113.4412867354731</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>175.2222821726394</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M31" t="n">
         <v>108.8738430064009</v>
@@ -29709,13 +29709,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R31" t="n">
-        <v>221.2249408455859</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S31" t="n">
         <v>220.675556989342</v>
@@ -29770,13 +29770,13 @@
         <v>193.998857389544</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K32" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>79.87932993370572</v>
+        <v>199.9941248175211</v>
       </c>
       <c r="M32" t="n">
         <v>221.2249408455859</v>
@@ -29785,13 +29785,13 @@
         <v>221.2249408455859</v>
       </c>
       <c r="O32" t="n">
+        <v>158.0874584001396</v>
+      </c>
+      <c r="P32" t="n">
+        <v>193.7931079161581</v>
+      </c>
+      <c r="Q32" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="P32" t="n">
-        <v>221.2249408455859</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>176.152156149761</v>
       </c>
       <c r="R32" t="n">
         <v>221.2249408455859</v>
@@ -29837,7 +29837,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>192.7654530347917</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.114842254054</v>
@@ -29846,28 +29846,28 @@
         <v>110.026926034905</v>
       </c>
       <c r="I33" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J33" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918121</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N33" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669644</v>
+        <v>138.0037700081043</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7916225242058</v>
@@ -29910,7 +29910,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>221.2249408455859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29928,28 +29928,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
-        <v>79.80504541274973</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>213.915685819377</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.4516218226006</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R34" t="n">
         <v>168.6732614754589</v>
@@ -30007,7 +30007,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="J35" t="n">
-        <v>63.3521755718313</v>
+        <v>122.3610341675609</v>
       </c>
       <c r="K35" t="n">
         <v>244.6402526369834</v>
@@ -30037,7 +30037,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="T35" t="n">
-        <v>244.6402526369834</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U35" t="n">
         <v>244.6402526369834</v>
@@ -30071,7 +30071,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>164.8430505849144</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30083,7 +30083,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
@@ -30092,19 +30092,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q36" t="n">
         <v>110.7916225242058</v>
@@ -30122,7 +30122,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789388</v>
       </c>
       <c r="W36" t="n">
         <v>244.6402526369834</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>157.3949952863636</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30165,28 +30165,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J37" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022011</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.4516218226006</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R37" t="n">
         <v>168.6732614754589</v>
@@ -30241,16 +30241,16 @@
         <v>244.6402526369835</v>
       </c>
       <c r="I38" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J38" t="n">
-        <v>80.11700339677799</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K38" t="n">
         <v>244.6402526369835</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369835</v>
+        <v>70.90296729057334</v>
       </c>
       <c r="M38" t="n">
         <v>244.6402526369835</v>
@@ -30262,7 +30262,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369835</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q38" t="n">
         <v>244.6402526369835</v>
@@ -30271,7 +30271,7 @@
         <v>244.6402526369835</v>
       </c>
       <c r="S38" t="n">
-        <v>199.280873144474</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T38" t="n">
         <v>244.6402526369835</v>
@@ -30302,7 +30302,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>179.9064691178291</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30320,7 +30320,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I39" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J39" t="n">
         <v>105.2328625520064</v>
@@ -30329,19 +30329,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734511</v>
+        <v>88.18866638734517</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q39" t="n">
         <v>110.7916225242058</v>
@@ -30359,7 +30359,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789387</v>
       </c>
       <c r="W39" t="n">
         <v>244.6402526369835</v>
@@ -30402,28 +30402,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J40" t="n">
-        <v>206.3383952075458</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M40" t="n">
-        <v>108.8738430064009</v>
+        <v>201.7709514784736</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364775</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P40" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.4516218226006</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R40" t="n">
         <v>168.6732614754589</v>
@@ -30481,7 +30481,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="J41" t="n">
-        <v>144.7715381416158</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K41" t="n">
         <v>244.6402526369834</v>
@@ -30490,7 +30490,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369834</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>244.6402526369834</v>
@@ -30499,7 +30499,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="P41" t="n">
-        <v>158.5242729575187</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q41" t="n">
         <v>244.6402526369834</v>
@@ -30511,7 +30511,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2249408455859</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U41" t="n">
         <v>244.6402526369834</v>
@@ -30548,7 +30548,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>152.2671825228974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.114842254054</v>
@@ -30557,28 +30557,28 @@
         <v>110.026926034905</v>
       </c>
       <c r="I42" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J42" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N42" t="n">
-        <v>71.86717946018487</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734511</v>
+        <v>18.52715115623742</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q42" t="n">
         <v>110.7916225242058</v>
@@ -30596,7 +30596,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789388</v>
       </c>
       <c r="W42" t="n">
         <v>244.6402526369834</v>
@@ -30639,37 +30639,37 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>79.80504541274973</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.34817151022014</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>189.9244506739902</v>
+        <v>131.4712616321672</v>
       </c>
       <c r="Q43" t="n">
-        <v>135.4516218226006</v>
+        <v>70.1086634448492</v>
       </c>
       <c r="R43" t="n">
-        <v>168.6732614754589</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S43" t="n">
         <v>220.675556989342</v>
       </c>
       <c r="T43" t="n">
-        <v>244.6402526369834</v>
+        <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
         <v>244.6402526369834</v>
@@ -30721,7 +30721,7 @@
         <v>244.6402526369834</v>
       </c>
       <c r="K44" t="n">
-        <v>205.8130967145461</v>
+        <v>201.8820422476215</v>
       </c>
       <c r="L44" t="n">
         <v>244.6402526369834</v>
@@ -30730,22 +30730,22 @@
         <v>244.6402526369834</v>
       </c>
       <c r="N44" t="n">
-        <v>153.1524308331736</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369834</v>
+        <v>223.1236588311737</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369834</v>
+        <v>169.7734840790315</v>
       </c>
       <c r="Q44" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="R44" t="n">
+        <v>188.7383716710528</v>
+      </c>
+      <c r="S44" t="n">
         <v>244.6402526369834</v>
-      </c>
-      <c r="S44" t="n">
-        <v>199.280873144474</v>
       </c>
       <c r="T44" t="n">
         <v>244.6402526369834</v>
@@ -30794,34 +30794,34 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>91.64914299614301</v>
+        <v>91.64914299614303</v>
       </c>
       <c r="J45" t="n">
         <v>105.2328625520064</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918121</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439821</v>
+        <v>84.19302733439827</v>
       </c>
       <c r="N45" t="n">
-        <v>79.06514958969836</v>
+        <v>71.86717946018493</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734511</v>
+        <v>95.38663651685866</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669644</v>
+        <v>90.30752936669649</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R45" t="n">
-        <v>85.95993058237568</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S45" t="n">
         <v>167.4356349622666</v>
@@ -30876,28 +30876,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274975</v>
       </c>
       <c r="K46" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
-        <v>16.46457152064292</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>201.7709514784739</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022011</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R46" t="n">
         <v>168.6732614754589</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O11" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T11" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M12" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P12" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L13" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P13" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O14" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T14" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M15" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P15" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L16" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P16" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O17" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T17" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M18" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P18" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L19" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O20" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T20" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M21" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P21" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L22" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P22" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O23" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T23" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M24" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P24" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L25" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P25" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O26" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T26" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M27" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P27" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L28" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P28" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O29" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T29" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M30" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P30" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L31" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P31" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O32" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T32" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M33" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P33" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L34" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P34" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O35" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T35" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M36" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P36" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L37" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P37" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O38" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T38" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M39" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P39" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L40" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P40" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O41" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T41" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M42" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P42" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L43" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P43" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935323</v>
+        <v>0.427392054493532</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081889</v>
+        <v>4.377028878081886</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507047</v>
+        <v>36.27436638507044</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178171</v>
+        <v>54.36587205178166</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948817</v>
+        <v>67.44567163948811</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858752</v>
+        <v>75.04630508858746</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341728</v>
+        <v>76.26063276341721</v>
       </c>
       <c r="O44" t="n">
-        <v>72.0107530215472</v>
+        <v>72.01075302154715</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623812</v>
+        <v>61.45951167623807</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468847</v>
+        <v>46.15353372468844</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307937</v>
+        <v>26.84716614307935</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771378</v>
+        <v>9.739196441771369</v>
       </c>
       <c r="T44" t="n">
-        <v>1.870908718545439</v>
+        <v>1.870908718545437</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948258</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566104</v>
+        <v>0.2286749091566103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591475</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856983</v>
+        <v>7.873237003856977</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466029</v>
+        <v>21.60476411466027</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815319</v>
+        <v>36.92598302815315</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069298</v>
+        <v>49.65154113069295</v>
       </c>
       <c r="M45" t="n">
-        <v>57.9410065876201</v>
+        <v>57.94100658762005</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314843</v>
+        <v>59.47453262314838</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709932</v>
+        <v>54.40757805709928</v>
       </c>
       <c r="P45" t="n">
-        <v>43.6668780476338</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181575</v>
+        <v>29.19015156181572</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026745</v>
+        <v>14.19790357026744</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571248</v>
+        <v>4.247536141571245</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216005</v>
+        <v>0.9217203575215998</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819806</v>
+        <v>0.01504440191819805</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1917133621488408</v>
+        <v>0.1917133621488406</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439686</v>
+        <v>5.765343654439681</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392304</v>
+        <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420168</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L46" t="n">
-        <v>28.5025484052922</v>
+        <v>28.50254840529218</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120419</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501308</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536525</v>
+        <v>27.09781231536522</v>
       </c>
       <c r="P46" t="n">
-        <v>23.18685972752888</v>
+        <v>23.18685972752886</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.0533798068452</v>
+        <v>16.05337980684519</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710602</v>
+        <v>8.620129901710595</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630251</v>
+        <v>3.341041047630248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995921</v>
+        <v>0.8191389109995915</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01045709248084587</v>
+        <v>0.01045709248084586</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.1205794399427</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>69.34789868787087</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628785</v>
+        <v>48.39545783628783</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>37.10794496905608</v>
       </c>
       <c r="M11" t="n">
-        <v>58.81950869080147</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>60.96700599631301</v>
       </c>
       <c r="O11" t="n">
-        <v>56.03197842934716</v>
+        <v>56.03197842934713</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.13486283462504</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.83856368501272</v>
+        <v>14.83856368501274</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>69.44556422910044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>69.44556422910053</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>46.87261573085885</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35556,10 +35556,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.3201708331768</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.53312076926386</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>69.63581790304478</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="N13" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>33.74841947564146</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.12057943994271</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>48.39545783628785</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.771027148988955</v>
+        <v>58.81950869080144</v>
       </c>
       <c r="N14" t="n">
-        <v>60.96700599631305</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>72.40356150710431</v>
+        <v>56.03197842934713</v>
       </c>
       <c r="P14" t="n">
-        <v>44.34595275045526</v>
+        <v>6.909660029587811</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.96728067972568</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501272</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>69.44556422910044</v>
       </c>
       <c r="P15" t="n">
-        <v>69.44556422910053</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,16 +35784,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.50396381127433</v>
+        <v>65.50396381127436</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>12.34932779116629</v>
       </c>
       <c r="G16" t="n">
-        <v>46.32017083317677</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>38.43271846509398</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>69.47816508257482</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>69.47816508257485</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="U17" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,13 +36112,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12.74642708286478</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>69.47816508257485</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="O20" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>72.40356150710429</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36148,10 +36148,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710431</v>
+        <v>56.73173799971006</v>
       </c>
       <c r="U20" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.74642708286484</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>72.40356150710431</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,22 +36376,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.40356150710431</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>72.40356150710443</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.47816508257495</v>
       </c>
       <c r="T23" t="n">
-        <v>36.63979614929484</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>20.0919418504152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,10 +36589,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604194</v>
+        <v>27.2260834560419</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45340270397011</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>379.6463744235518</v>
@@ -36601,25 +36601,25 @@
         <v>430.5925962394319</v>
       </c>
       <c r="M26" t="n">
-        <v>29.67835141576523</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>51.45145676655451</v>
+        <v>59.38022183877457</v>
       </c>
       <c r="Q26" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>98.20298904751557</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111197</v>
+        <v>21.94406770111193</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>32.24428499929926</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>15.45195564210846</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.39296066364864</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.90725213751585</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>122.0653642839021</v>
       </c>
       <c r="O28" t="n">
-        <v>109.8662147091084</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,10 +36774,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>52.55167937012702</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.5493838562438991</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>76.45340270397008</v>
       </c>
       <c r="K29" t="n">
-        <v>55.50096185238709</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>249.3404712199514</v>
+        <v>249.3404712199513</v>
       </c>
       <c r="M29" t="n">
-        <v>177.5602632030899</v>
+        <v>162.4028734955587</v>
       </c>
       <c r="N29" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="O29" t="n">
-        <v>63.13748244544641</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2501649380371</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R29" t="n">
-        <v>98.20298904751563</v>
+        <v>98.2029890475156</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>25.71430813312179</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21.98193250828593</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>74.79097819901676</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,13 +36984,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>47.82376994112906</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>68.48263098630569</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>106.6837965239672</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.55167937012705</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>76.45340270397006</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6463744235518</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>329.2198011536571</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M32" t="n">
-        <v>65.92501270690069</v>
+        <v>65.92501270690063</v>
       </c>
       <c r="N32" t="n">
         <v>430.5925962394319</v>
       </c>
       <c r="O32" t="n">
-        <v>415.65089383696</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.45145676655448</v>
+        <v>345.8183320086093</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>257.3877753557296</v>
       </c>
       <c r="R32" t="n">
-        <v>32.48656917453316</v>
+        <v>98.20298904751557</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37133,37 +37133,37 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>47.6962406414078</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>72.60946782737355</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>68.48263098630586</v>
       </c>
       <c r="O34" t="n">
-        <v>102.5569596828995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>106.6837965239671</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743945</v>
+        <v>50.64139524743943</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378459</v>
+        <v>78.91627364378455</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648436</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="M35" t="n">
+        <v>89.34032449829816</v>
+      </c>
+      <c r="N35" t="n">
         <v>358.1890347323276</v>
       </c>
-      <c r="N35" t="n">
-        <v>91.48782180380979</v>
-      </c>
       <c r="O35" t="n">
-        <v>358.1890347323276</v>
+        <v>294.29354730584</v>
       </c>
       <c r="P35" t="n">
-        <v>74.86676855795201</v>
+        <v>74.86676855795196</v>
       </c>
       <c r="Q35" t="n">
-        <v>260.8993253896688</v>
+        <v>68.48809648722238</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250947</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139752</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37367,58 +37367,58 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>7.197970129513493</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>8.779522268151281</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>8.779522268151288</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>50.64139524743952</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K38" t="n">
+        <v>78.91627364378463</v>
+      </c>
+      <c r="L38" t="n">
+        <v>80.19904327460083</v>
+      </c>
+      <c r="M38" t="n">
+        <v>89.34032449829824</v>
+      </c>
+      <c r="N38" t="n">
         <v>358.1890347323276</v>
       </c>
-      <c r="L38" t="n">
-        <v>358.1890347323276</v>
-      </c>
-      <c r="M38" t="n">
-        <v>89.3403244982983</v>
-      </c>
-      <c r="N38" t="n">
-        <v>91.48782180380988</v>
-      </c>
       <c r="O38" t="n">
-        <v>86.55279423684399</v>
+        <v>86.55279423684394</v>
       </c>
       <c r="P38" t="n">
-        <v>286.7195554495432</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.48809648722251</v>
+        <v>280.8030871471271</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593077</v>
+        <v>55.90188096593074</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>45.35937949250955</v>
       </c>
       <c r="T38" t="n">
         <v>23.4153117913976</v>
@@ -37598,64 +37598,64 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>7.1979701295134</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>92.89710847207274</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.64139524743945</v>
+        <v>50.64139524743943</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378459</v>
+        <v>78.91627364378455</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648436</v>
+        <v>76.31950930648431</v>
       </c>
       <c r="M41" t="n">
-        <v>89.34032449829822</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>284.5784632737344</v>
+        <v>91.48782180380972</v>
       </c>
       <c r="O41" t="n">
         <v>358.1890347323276</v>
       </c>
       <c r="P41" t="n">
-        <v>310.5494970499699</v>
+        <v>234.8834016863718</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.48809648722242</v>
+        <v>68.48809648722238</v>
       </c>
       <c r="R41" t="n">
-        <v>55.90188096593069</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S41" t="n">
-        <v>45.35937949250947</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.41531179139751</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37844,55 +37844,55 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>7.197970129513493</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>75.38330635237146</v>
+        <v>16.93011731054846</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>75.96699116152455</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.51380211970153</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.64139524743945</v>
+        <v>50.64139524743943</v>
       </c>
       <c r="J44" t="n">
-        <v>99.86871449536761</v>
+        <v>99.86871449536758</v>
       </c>
       <c r="K44" t="n">
-        <v>40.08911772134726</v>
+        <v>36.15806325442262</v>
       </c>
       <c r="L44" t="n">
-        <v>76.31950930648436</v>
+        <v>76.31950930648431</v>
       </c>
       <c r="M44" t="n">
+        <v>89.34032449829816</v>
+      </c>
+      <c r="N44" t="n">
         <v>358.1890347323276</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>358.1890347323276</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795201</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>280.8030871471271</v>
       </c>
       <c r="R44" t="n">
-        <v>55.90188096593069</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139752</v>
+        <v>23.41531179139751</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>7.197970129513493</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
